--- a/Project/Data/Water/Average Production.xlsx
+++ b/Project/Data/Water/Average Production.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Zurich</t>
   </si>
@@ -29,18 +29,12 @@
     <t>Berne</t>
   </si>
   <si>
-    <t>3'144.78</t>
-  </si>
-  <si>
     <t>Lucerne</t>
   </si>
   <si>
     <t>Uri</t>
   </si>
   <si>
-    <t>1'522.92</t>
-  </si>
-  <si>
     <t>Schwyz</t>
   </si>
   <si>
@@ -83,33 +77,21 @@
     <t>Grisons</t>
   </si>
   <si>
-    <t>7'866.31</t>
-  </si>
-  <si>
     <t>Argovie</t>
   </si>
   <si>
-    <t>2'969.56</t>
-  </si>
-  <si>
     <t>Thurgovie</t>
   </si>
   <si>
     <t>Tessin</t>
   </si>
   <si>
-    <t>3'503.89</t>
-  </si>
-  <si>
     <t>Vaud</t>
   </si>
   <si>
     <t>Valais</t>
   </si>
   <si>
-    <t>9'548.57</t>
-  </si>
-  <si>
     <t>Neuchâtel</t>
   </si>
   <si>
@@ -120,150 +102,6 @@
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>3'147.02</t>
-  </si>
-  <si>
-    <t>7'864.92</t>
-  </si>
-  <si>
-    <t>2'990.66</t>
-  </si>
-  <si>
-    <t>9'565.90</t>
-  </si>
-  <si>
-    <t>3'253.82</t>
-  </si>
-  <si>
-    <t>1'523.91</t>
-  </si>
-  <si>
-    <t>7'869.90</t>
-  </si>
-  <si>
-    <t>2'991.31</t>
-  </si>
-  <si>
-    <t>3'537.89</t>
-  </si>
-  <si>
-    <t>9'568.99</t>
-  </si>
-  <si>
-    <t>3'273.45</t>
-  </si>
-  <si>
-    <t>1'526.07</t>
-  </si>
-  <si>
-    <t>7'855.93</t>
-  </si>
-  <si>
-    <t>3'029.76</t>
-  </si>
-  <si>
-    <t>9'593.38</t>
-  </si>
-  <si>
-    <t>3'292.85</t>
-  </si>
-  <si>
-    <t>1'527.57</t>
-  </si>
-  <si>
-    <t>7'868.33</t>
-  </si>
-  <si>
-    <t>3'217.11</t>
-  </si>
-  <si>
-    <t>9'593.81</t>
-  </si>
-  <si>
-    <t>3'315.85</t>
-  </si>
-  <si>
-    <t>7'802.96</t>
-  </si>
-  <si>
-    <t>3'224.11</t>
-  </si>
-  <si>
-    <t>9'595.51</t>
-  </si>
-  <si>
-    <t>3'308.62</t>
-  </si>
-  <si>
-    <t>1'528.77</t>
-  </si>
-  <si>
-    <t>7'822.81</t>
-  </si>
-  <si>
-    <t>3'170.01</t>
-  </si>
-  <si>
-    <t>3'542.59</t>
-  </si>
-  <si>
-    <t>9'589.11</t>
-  </si>
-  <si>
-    <t>3'321.98</t>
-  </si>
-  <si>
-    <t>7'784.01</t>
-  </si>
-  <si>
-    <t>3'174.91</t>
-  </si>
-  <si>
-    <t>9'618.14</t>
-  </si>
-  <si>
-    <t>3'325.18</t>
-  </si>
-  <si>
-    <t>7'816.58</t>
-  </si>
-  <si>
-    <t>3'240.81</t>
-  </si>
-  <si>
-    <t>9'646.76</t>
-  </si>
-  <si>
-    <t>3'346.15</t>
-  </si>
-  <si>
-    <t>7'889.38</t>
-  </si>
-  <si>
-    <t>3'547.39</t>
-  </si>
-  <si>
-    <t>9'679.27</t>
-  </si>
-  <si>
-    <t>3'310.60</t>
-  </si>
-  <si>
-    <t>1'542.77</t>
-  </si>
-  <si>
-    <t>7'928.75</t>
-  </si>
-  <si>
-    <t>3'242.63</t>
-  </si>
-  <si>
-    <t>3'547.09</t>
-  </si>
-  <si>
-    <t>9'702.75</t>
   </si>
 </sst>
 </file>
@@ -722,17 +560,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:AA13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
@@ -746,11 +584,11 @@
     <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="4.5" bestFit="1" customWidth="1"/>
@@ -758,7 +596,7 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -767,76 +605,76 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -846,14 +684,14 @@
       <c r="B2" s="2">
         <v>544.80999999999995</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
+      <c r="C2" s="1">
+        <v>3144.78</v>
       </c>
       <c r="D2" s="2">
         <v>48.21</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
+      <c r="E2" s="1">
+        <v>1522.92</v>
       </c>
       <c r="F2" s="2">
         <v>476.16</v>
@@ -894,23 +732,23 @@
       <c r="R2" s="2">
         <v>595.33000000000004</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>22</v>
+      <c r="S2" s="1">
+        <v>7866.31</v>
+      </c>
+      <c r="T2" s="1">
+        <v>2969.56</v>
       </c>
       <c r="U2" s="2">
         <v>50.17</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>25</v>
+      <c r="V2" s="1">
+        <v>3503.89</v>
       </c>
       <c r="W2" s="2">
         <v>806.11</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>28</v>
+      <c r="X2" s="1">
+        <v>9548.57</v>
       </c>
       <c r="Y2" s="2">
         <v>139.22999999999999</v>
@@ -930,14 +768,14 @@
       <c r="B3" s="2">
         <v>544.61</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
+      <c r="C3" s="1">
+        <v>3147.02</v>
       </c>
       <c r="D3" s="2">
         <v>48.21</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
+      <c r="E3" s="1">
+        <v>1522.92</v>
       </c>
       <c r="F3" s="2">
         <v>476.16</v>
@@ -978,23 +816,23 @@
       <c r="R3" s="2">
         <v>592.69000000000005</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>35</v>
+      <c r="S3" s="1">
+        <v>7864.92</v>
+      </c>
+      <c r="T3" s="1">
+        <v>2990.66</v>
       </c>
       <c r="U3" s="2">
         <v>49.97</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>25</v>
+      <c r="V3" s="1">
+        <v>3503.89</v>
       </c>
       <c r="W3" s="2">
         <v>810.17</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>36</v>
+      <c r="X3" s="1">
+        <v>9565.9</v>
       </c>
       <c r="Y3" s="2">
         <v>133.07</v>
@@ -1009,20 +847,20 @@
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A15" si="0">A3 + 1</f>
+        <f t="shared" ref="A4:A13" si="0">A3 + 1</f>
         <v>2008</v>
       </c>
       <c r="B4" s="2">
         <v>544.77</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
+      <c r="C4" s="1">
+        <v>3253.82</v>
       </c>
       <c r="D4" s="2">
         <v>48.21</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>38</v>
+      <c r="E4" s="1">
+        <v>1523.91</v>
       </c>
       <c r="F4" s="2">
         <v>476.16</v>
@@ -1063,23 +901,23 @@
       <c r="R4" s="2">
         <v>598.19000000000005</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>40</v>
+      <c r="S4" s="1">
+        <v>7869.9</v>
+      </c>
+      <c r="T4" s="1">
+        <v>2991.31</v>
       </c>
       <c r="U4" s="2">
         <v>49.97</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>41</v>
+      <c r="V4" s="1">
+        <v>3537.89</v>
       </c>
       <c r="W4" s="2">
         <v>810.17</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>36</v>
+      <c r="X4" s="1">
+        <v>9565.9</v>
       </c>
       <c r="Y4" s="2">
         <v>133.07</v>
@@ -1099,14 +937,14 @@
       <c r="B5" s="2">
         <v>545.27</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
+      <c r="C5" s="1">
+        <v>3253.82</v>
       </c>
       <c r="D5" s="2">
         <v>48.21</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>38</v>
+      <c r="E5" s="1">
+        <v>1523.91</v>
       </c>
       <c r="F5" s="2">
         <v>476.16</v>
@@ -1147,23 +985,23 @@
       <c r="R5" s="2">
         <v>599.49</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>40</v>
+      <c r="S5" s="1">
+        <v>7869.9</v>
+      </c>
+      <c r="T5" s="1">
+        <v>2991.31</v>
       </c>
       <c r="U5" s="2">
         <v>51.57</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>41</v>
+      <c r="V5" s="1">
+        <v>3537.89</v>
       </c>
       <c r="W5" s="2">
         <v>821.28</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>42</v>
+      <c r="X5" s="1">
+        <v>9568.99</v>
       </c>
       <c r="Y5" s="2">
         <v>133.07</v>
@@ -1183,14 +1021,14 @@
       <c r="B6" s="2">
         <v>545.27</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
+      <c r="C6" s="1">
+        <v>3273.45</v>
       </c>
       <c r="D6" s="2">
         <v>48.21</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>44</v>
+      <c r="E6" s="1">
+        <v>1526.07</v>
       </c>
       <c r="F6" s="2">
         <v>476.16</v>
@@ -1231,23 +1069,23 @@
       <c r="R6" s="2">
         <v>600.49</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>46</v>
+      <c r="S6" s="1">
+        <v>7855.93</v>
+      </c>
+      <c r="T6" s="1">
+        <v>3029.76</v>
       </c>
       <c r="U6" s="2">
         <v>51.57</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>41</v>
+      <c r="V6" s="1">
+        <v>3537.89</v>
       </c>
       <c r="W6" s="2">
         <v>821.28</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>47</v>
+      <c r="X6" s="1">
+        <v>9593.3799999999992</v>
       </c>
       <c r="Y6" s="2">
         <v>133.07</v>
@@ -1267,14 +1105,14 @@
       <c r="B7" s="2">
         <v>545.29999999999995</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>48</v>
+      <c r="C7" s="1">
+        <v>3292.85</v>
       </c>
       <c r="D7" s="2">
         <v>48.21</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>49</v>
+      <c r="E7" s="1">
+        <v>1527.57</v>
       </c>
       <c r="F7" s="2">
         <v>476.16</v>
@@ -1315,23 +1153,23 @@
       <c r="R7" s="2">
         <v>606.59</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>51</v>
+      <c r="S7" s="1">
+        <v>7868.33</v>
+      </c>
+      <c r="T7" s="1">
+        <v>3217.11</v>
       </c>
       <c r="U7" s="2">
         <v>51.87</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>41</v>
+      <c r="V7" s="1">
+        <v>3537.89</v>
       </c>
       <c r="W7" s="2">
         <v>821.28</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>52</v>
+      <c r="X7" s="1">
+        <v>9593.81</v>
       </c>
       <c r="Y7" s="2">
         <v>133.07</v>
@@ -1351,14 +1189,14 @@
       <c r="B8" s="2">
         <v>545.29999999999995</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>53</v>
+      <c r="C8" s="1">
+        <v>3315.85</v>
       </c>
       <c r="D8" s="2">
         <v>52.71</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>49</v>
+      <c r="E8" s="1">
+        <v>1527.57</v>
       </c>
       <c r="F8" s="2">
         <v>476.16</v>
@@ -1399,23 +1237,23 @@
       <c r="R8" s="2">
         <v>606.99</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>55</v>
+      <c r="S8" s="1">
+        <v>7802.96</v>
+      </c>
+      <c r="T8" s="1">
+        <v>3224.11</v>
       </c>
       <c r="U8" s="2">
         <v>58.97</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>41</v>
+      <c r="V8" s="1">
+        <v>3537.89</v>
       </c>
       <c r="W8" s="2">
         <v>821.28</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>56</v>
+      <c r="X8" s="1">
+        <v>9595.51</v>
       </c>
       <c r="Y8" s="2">
         <v>133.07</v>
@@ -1435,14 +1273,14 @@
       <c r="B9" s="2">
         <v>592.26</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>57</v>
+      <c r="C9" s="1">
+        <v>3308.62</v>
       </c>
       <c r="D9" s="2">
         <v>52.71</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>58</v>
+      <c r="E9" s="1">
+        <v>1528.77</v>
       </c>
       <c r="F9" s="2">
         <v>476.16</v>
@@ -1483,23 +1321,23 @@
       <c r="R9" s="2">
         <v>606.99</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>60</v>
+      <c r="S9" s="1">
+        <v>7822.81</v>
+      </c>
+      <c r="T9" s="1">
+        <v>3170.01</v>
       </c>
       <c r="U9" s="2">
         <v>58.97</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>61</v>
+      <c r="V9" s="1">
+        <v>3542.59</v>
       </c>
       <c r="W9" s="2">
         <v>821.28</v>
       </c>
-      <c r="X9" s="1" t="s">
-        <v>62</v>
+      <c r="X9" s="1">
+        <v>9589.11</v>
       </c>
       <c r="Y9" s="2">
         <v>133.07</v>
@@ -1519,14 +1357,14 @@
       <c r="B10" s="2">
         <v>592.26</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>63</v>
+      <c r="C10" s="1">
+        <v>3321.98</v>
       </c>
       <c r="D10" s="2">
         <v>52.71</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>58</v>
+      <c r="E10" s="1">
+        <v>1528.77</v>
       </c>
       <c r="F10" s="2">
         <v>476.16</v>
@@ -1567,23 +1405,23 @@
       <c r="R10" s="2">
         <v>608.24</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>65</v>
+      <c r="S10" s="1">
+        <v>7784.01</v>
+      </c>
+      <c r="T10" s="1">
+        <v>3174.91</v>
       </c>
       <c r="U10" s="2">
         <v>58.97</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>61</v>
+      <c r="V10" s="1">
+        <v>3542.59</v>
       </c>
       <c r="W10" s="2">
         <v>827.42</v>
       </c>
-      <c r="X10" s="1" t="s">
-        <v>66</v>
+      <c r="X10" s="1">
+        <v>9618.14</v>
       </c>
       <c r="Y10" s="2">
         <v>133.07</v>
@@ -1603,14 +1441,14 @@
       <c r="B11" s="2">
         <v>592.86</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>67</v>
+      <c r="C11" s="1">
+        <v>3325.18</v>
       </c>
       <c r="D11" s="2">
         <v>52.71</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>58</v>
+      <c r="E11" s="1">
+        <v>1528.77</v>
       </c>
       <c r="F11" s="2">
         <v>476.16</v>
@@ -1651,23 +1489,23 @@
       <c r="R11" s="2">
         <v>612.84</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>69</v>
+      <c r="S11" s="1">
+        <v>7816.58</v>
+      </c>
+      <c r="T11" s="1">
+        <v>3240.81</v>
       </c>
       <c r="U11" s="2">
         <v>60.37</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>61</v>
+      <c r="V11" s="1">
+        <v>3542.59</v>
       </c>
       <c r="W11" s="2">
         <v>814.02</v>
       </c>
-      <c r="X11" s="1" t="s">
-        <v>70</v>
+      <c r="X11" s="1">
+        <v>9646.76</v>
       </c>
       <c r="Y11" s="2">
         <v>134.72</v>
@@ -1687,14 +1525,14 @@
       <c r="B12" s="2">
         <v>595.41</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>71</v>
+      <c r="C12" s="1">
+        <v>3346.15</v>
       </c>
       <c r="D12" s="2">
         <v>52.71</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>58</v>
+      <c r="E12" s="1">
+        <v>1528.77</v>
       </c>
       <c r="F12" s="2">
         <v>477.06</v>
@@ -1735,23 +1573,23 @@
       <c r="R12" s="2">
         <v>616.64</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>69</v>
+      <c r="S12" s="1">
+        <v>7889.38</v>
+      </c>
+      <c r="T12" s="1">
+        <v>3240.81</v>
       </c>
       <c r="U12" s="2">
         <v>60.37</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>73</v>
+      <c r="V12" s="1">
+        <v>3547.39</v>
       </c>
       <c r="W12" s="2">
         <v>814.02</v>
       </c>
-      <c r="X12" s="1" t="s">
-        <v>74</v>
+      <c r="X12" s="1">
+        <v>9679.27</v>
       </c>
       <c r="Y12" s="2">
         <v>134.72</v>
@@ -1771,14 +1609,14 @@
       <c r="B13" s="2">
         <v>594.80999999999995</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>75</v>
+      <c r="C13" s="1">
+        <v>3310.6</v>
       </c>
       <c r="D13" s="2">
         <v>52.71</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>76</v>
+      <c r="E13" s="1">
+        <v>1542.77</v>
       </c>
       <c r="F13" s="2">
         <v>482.06</v>
@@ -1819,23 +1657,23 @@
       <c r="R13" s="2">
         <v>618.54</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>78</v>
+      <c r="S13" s="1">
+        <v>7928.75</v>
+      </c>
+      <c r="T13" s="1">
+        <v>3242.63</v>
       </c>
       <c r="U13" s="2">
         <v>69.27</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>79</v>
+      <c r="V13" s="1">
+        <v>3547.09</v>
       </c>
       <c r="W13" s="2">
         <v>843.02</v>
       </c>
-      <c r="X13" s="1" t="s">
-        <v>80</v>
+      <c r="X13" s="1">
+        <v>9702.75</v>
       </c>
       <c r="Y13" s="2">
         <v>136.32</v>
